--- a/biology/Botanique/Cerastium_arcticum/Cerastium_arcticum.xlsx
+++ b/biology/Botanique/Cerastium_arcticum/Cerastium_arcticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerastium arcticum est une espèce de céraiste de la famille des Caryophyllaceae que l'on trouve au nord de l'Écosse, en Norvège, à l'île de Spitzberg, au sud du Groenland, à l'île de Baffin, en Islande et dans le Labrador.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est pubescente avec des feuilles elliptiques et des fleurs blanches, solitaires ou doubles, plutôt grandes et belles quand elles sont totalement ouvertes, dont les pétales considérablement échancrés sont beaucoup plus grands que les tépales.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse en touffes sur des éboulis rocheux ou des sols pierreux, humides et ouverts.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cerastium alpinum var. procerum Lange
 Cerastium alpinum var. uniflorum Durand
